--- a/SistemaRecomendador/Cuestionario-Temas.xlsx
+++ b/SistemaRecomendador/Cuestionario-Temas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de programa\Xampp\htdocs\ProyectoDeGradoRepositorio\SistemaRecomendador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64548FCB-83A5-41F6-A87F-59917C7BE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38262DCC-B1F9-44D4-8D76-F1D53CE2A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Tema</t>
   </si>
@@ -49,18 +49,42 @@
   </si>
   <si>
     <t>Tema cuestionario</t>
+  </si>
+  <si>
+    <t>Nombre sesion</t>
+  </si>
+  <si>
+    <t>Introduccion a los tipos de datos</t>
+  </si>
+  <si>
+    <t>Construccion de los diagramas de clase</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>Introduccion a los patrones GRASP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,46 +391,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
